--- a/src/main/resources/tp/报检单.xlsx
+++ b/src/main/resources/tp/报检单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291CA21-6CAB-473F-B6E2-3F17D2567863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D272CBD-6179-416B-8CD0-7AC2A865E78E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>主单号</t>
-  </si>
-  <si>
-    <t>航班号</t>
-  </si>
-  <si>
-    <t>航次</t>
-  </si>
-  <si>
-    <t>航班日期</t>
-  </si>
-  <si>
-    <t>到货日期</t>
   </si>
   <si>
     <t>件数</t>
@@ -45,46 +33,10 @@
     <t>重量</t>
   </si>
   <si>
-    <t>分单数</t>
-  </si>
-  <si>
-    <t>启运国家</t>
-  </si>
-  <si>
-    <t>起运港口</t>
-  </si>
-  <si>
-    <t>进出口岸</t>
-  </si>
-  <si>
-    <t>运输工具</t>
-  </si>
-  <si>
-    <t>地面代理</t>
-  </si>
-  <si>
-    <t>是否纯个人</t>
-  </si>
-  <si>
-    <t>一单到底</t>
-  </si>
-  <si>
-    <t>报检类型</t>
-  </si>
-  <si>
-    <t>仓库编码</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>分单号</t>
-  </si>
-  <si>
-    <t>净重</t>
-  </si>
-  <si>
-    <t>发货人姓名</t>
   </si>
   <si>
     <t>收件人姓名</t>
@@ -96,54 +48,6 @@
     <t>收件人地址</t>
   </si>
   <si>
-    <t>收件人电话</t>
-  </si>
-  <si>
-    <t>收件人姓名(申报)</t>
-  </si>
-  <si>
-    <t>收件人地址(申报)</t>
-  </si>
-  <si>
-    <t>收件人电话(申报)</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>快递类型</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>快递客户号</t>
-  </si>
-  <si>
-    <t>转运公司</t>
-  </si>
-  <si>
-    <t>网站</t>
-  </si>
-  <si>
-    <t>报关类别</t>
-  </si>
-  <si>
-    <t>保价</t>
-  </si>
-  <si>
-    <t>RFIDCode</t>
-  </si>
-  <si>
-    <t>溢装原主单号</t>
-  </si>
-  <si>
-    <t>报检状态</t>
-  </si>
-  <si>
     <t>商品编码</t>
   </si>
   <si>
@@ -151,15 +55,6 @@
   </si>
   <si>
     <t>申报单价</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>申报实价</t>
-  </si>
-  <si>
-    <t>商品ID</t>
   </si>
   <si>
     <t>{{$fe:list t.bill_no</t>
@@ -347,6 +242,150 @@
   </si>
   <si>
     <t>t.g_id}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>航班号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>航次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>航班日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>到货日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启运国家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>起运港口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出口岸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面代理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否纯个人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一单到底</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报检类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人地址(申报)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名(申报)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人电话(申报)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递客户号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转运公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFIDCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢装原主单号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报检状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报实价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +826,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,111 +851,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -929,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,144 +996,144 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -26582,8 +26621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26599,48 +26638,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
